--- a/Benchmarking/Raw Indicators/Unbreakable_global.xlsx
+++ b/Benchmarking/Raw Indicators/Unbreakable_global.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/shallegatte_worldbank_org/Documents/CC and POV - Report/COUNTRY WORK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB572998\OneDrive - WBG\MENA\terridev_GSG\Benchmarking\Raw Indicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{5F57E87E-E125-421F-92AB-CE2C0B15590E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BB49D3DB-286E-4A14-9308-94A3E962A07D}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{5F57E87E-E125-421F-92AB-CE2C0B15590E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D2E20451-857C-4EF7-8111-D2A24C1AF688}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9540" xr2:uid="{9E703862-42DF-4409-AC70-0AC7E8ED3CA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E703862-42DF-4409-AC70-0AC7E8ED3CA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -991,12 +994,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05079A4A-7D9C-4A2F-91FF-FFC957F97798}">
   <dimension ref="A1:AU150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU107" sqref="AU107"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AR1" sqref="AR1:AR1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:47">
       <c r="A1" s="1" t="s">
